--- a/data/trans_camb/P45C_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.951417370732222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.724700713145708</v>
+        <v>5.724700713145711</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.297380273070675</v>
@@ -655,7 +655,7 @@
         <v>1.428310259841753</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.790717486044213</v>
+        <v>2.790717486044211</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.8810229387372193</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.686934632895401</v>
+        <v>-8.96793895830686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.135566831907299</v>
+        <v>-8.550174711619862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7509621942052042</v>
+        <v>0.4041602424058386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.430963466457499</v>
+        <v>-1.054062722640877</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.143627124663953</v>
+        <v>-1.222365032922286</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2859240180499266</v>
+        <v>-0.1398577642810722</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.932123851991042</v>
+        <v>-3.047793806018881</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.106375692235177</v>
+        <v>-2.924131075729431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.833778553764906</v>
+        <v>1.719365014683911</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.9719659239697146</v>
+        <v>-1.325890268632396</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.420499617267106</v>
+        <v>-1.236076334646696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.40249445535231</v>
+        <v>11.23303946922324</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.944370495168547</v>
+        <v>3.989466798357931</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.177693032454336</v>
+        <v>3.67553636682613</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.592075577546867</v>
+        <v>6.033795775605289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.196485905422793</v>
+        <v>1.320580084294694</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.247407091398558</v>
+        <v>1.207688452289404</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.675591441090536</v>
+        <v>7.426623386015082</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2814556183019595</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3254117070267943</v>
+        <v>0.3254117070267945</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1429077734211029</v>
@@ -760,7 +760,7 @@
         <v>0.1573298463259296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3074004056142996</v>
+        <v>0.3074004056142994</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.07115023107774919</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4304419773464302</v>
+        <v>-0.4419179450303459</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4436551662356388</v>
+        <v>-0.4241229616783105</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.02939798659882339</v>
+        <v>0.02071951733275678</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1341987492222779</v>
+        <v>-0.1005546642371149</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1134296726723129</v>
+        <v>-0.1174803479062106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03143205068345199</v>
+        <v>-0.01392099479776844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2094254623773827</v>
+        <v>-0.2244827882744202</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.224966431790304</v>
+        <v>-0.2175769252282069</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1396191888634962</v>
+        <v>0.1245755585751281</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.05657440785637102</v>
+        <v>-0.08565209440603495</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.0795185556667618</v>
+        <v>-0.07486107957470245</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7263033214566055</v>
+        <v>0.7242193133150675</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4919638150692803</v>
+        <v>0.5302583080949813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5366606261846624</v>
+        <v>0.4639879221243206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7014144426458307</v>
+        <v>0.7757591877001465</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1127135871521755</v>
+        <v>0.1162206437073292</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1102058023730787</v>
+        <v>0.1076572895449346</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7031733761696863</v>
+        <v>0.6685652632548049</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.43874612913136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.920927584610476</v>
+        <v>3.920927584610473</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.689167004118538</v>
@@ -869,7 +869,7 @@
         <v>3.758696373711264</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.600779313114322</v>
+        <v>2.600779313114325</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.115045468192971</v>
@@ -878,7 +878,7 @@
         <v>1.194941089521973</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.07105773553272</v>
+        <v>3.071057735532723</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.621369886744316</v>
+        <v>2.442813789032737</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.382534626268558</v>
+        <v>-4.446631388332171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2943687944991975</v>
+        <v>0.5308500161055237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1870933755364555</v>
+        <v>-0.1302533387300939</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4926310738195796</v>
+        <v>0.7246035010483296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1631251326422538</v>
+        <v>-0.2996934451485232</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.675703612803086</v>
+        <v>1.764286649914531</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.196911272748373</v>
+        <v>-1.184453154158229</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6167908012401476</v>
+        <v>0.6675551270787594</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.282209131543553</v>
+        <v>9.289892683468802</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.958760173107126</v>
+        <v>2.145489968767378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.839676454068489</v>
+        <v>7.876073766425648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.100681552800117</v>
+        <v>5.571459731869594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.930454029024682</v>
+        <v>6.950243804869776</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.412204447658755</v>
+        <v>5.229770940285495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.475208162455784</v>
+        <v>6.559754075354957</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.449972202484545</v>
+        <v>3.354534676509255</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.335800758782185</v>
+        <v>5.397579578506511</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.09372901557744433</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2554340027158694</v>
+        <v>0.2554340027158692</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2221401622380823</v>
@@ -974,7 +974,7 @@
         <v>0.3104892410851204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2148388470020054</v>
+        <v>0.2148388470020056</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2994352023082692</v>
@@ -983,7 +983,7 @@
         <v>0.0869510263381363</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2234684407371637</v>
+        <v>0.2234684407371639</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1576362391275495</v>
+        <v>0.1395812934038297</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2693668885701493</v>
+        <v>-0.2648654891408815</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01743861994485961</v>
+        <v>0.03401937800331439</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01714624748457215</v>
+        <v>-0.01020354418864216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02394322286736832</v>
+        <v>0.03521635992450724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0104700697644985</v>
+        <v>-0.027669531842172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1072763168788655</v>
+        <v>0.1223083319313629</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07808195160413813</v>
+        <v>-0.07889124430525925</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.03972085653862791</v>
+        <v>0.04502281095288323</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6677674079739053</v>
+        <v>0.6728271697356608</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1395469390461211</v>
+        <v>0.1581904585815438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5719080874041765</v>
+        <v>0.5773332979527942</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5693718014944144</v>
+        <v>0.5224177068026271</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6307376255592522</v>
+        <v>0.6405308982922504</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5048982144416235</v>
+        <v>0.4819417038399691</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.504577705440461</v>
+        <v>0.5189230230781645</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2724005300094237</v>
+        <v>0.261822492147791</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4284660899822009</v>
+        <v>0.4218965640077143</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.184978846739462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.3127991726746493</v>
+        <v>-0.3127991726746465</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.704303682875999</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1140849341072749</v>
+        <v>-0.4116234293096022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.526812038819668</v>
+        <v>-4.554561105903166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.631222544744483</v>
+        <v>-3.680997727493348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.345867844370235</v>
+        <v>-1.620484817486649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.020313193602627</v>
+        <v>-2.087585754376938</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.241764024205028</v>
+        <v>-2.273584321971575</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1601519684864773</v>
+        <v>0.3132964336203526</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.31440260725857</v>
+        <v>-2.177639444645622</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.267136714792691</v>
+        <v>-2.212903555072837</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.537711236261402</v>
+        <v>6.678841153069029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.188237332251195</v>
+        <v>2.279549641835366</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.001869123073568</v>
+        <v>2.92288511525803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.049817885846671</v>
+        <v>5.021974527691066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.885662353902968</v>
+        <v>4.75768481691199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.617826785636216</v>
+        <v>3.793793001090959</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.509184354694088</v>
+        <v>4.991404888672868</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.348580276685204</v>
+        <v>2.420894282929819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.29999162759287</v>
+        <v>2.326563357235349</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.07713899138715836</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02036239950886246</v>
+        <v>-0.02036239950886228</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1241540453767373</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.007583278781835464</v>
+        <v>-0.02454751448295963</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2827768325990602</v>
+        <v>-0.2681134002611067</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2183291218644387</v>
+        <v>-0.225936106043558</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09386815116356681</v>
+        <v>-0.1058822201264505</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1330392825179274</v>
+        <v>-0.1410622635213963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1461612586665922</v>
+        <v>-0.1477406151156397</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.008513920697177501</v>
+        <v>0.01955934124859987</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1514441438065836</v>
+        <v>-0.1401804297909727</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1455978904796282</v>
+        <v>-0.1425673004811861</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4668147001300781</v>
+        <v>0.4731971829456155</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1539080075275824</v>
+        <v>0.1548397983992345</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.216671979635754</v>
+        <v>0.2110771401534592</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4047488147060154</v>
+        <v>0.4012260810334041</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4066955752273305</v>
+        <v>0.3905474203391485</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.293816005251239</v>
+        <v>0.3024456314448484</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3334019326668186</v>
+        <v>0.368900220969508</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1709406930829356</v>
+        <v>0.1819331255884799</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.16655873041743</v>
+        <v>0.1738881899322366</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.823352645999713</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.399664400970643</v>
+        <v>-4.399664400970642</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9698733235260574</v>
+        <v>-0.6408481579161186</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.972690094535694</v>
+        <v>-5.574947869984554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.656648040383487</v>
+        <v>-5.956686503013931</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.552570894436432</v>
+        <v>-10.20150535145417</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.30784332346289</v>
+        <v>-10.5627112011768</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.03386223275932</v>
+        <v>-12.45053172133436</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.44729039220077</v>
+        <v>-3.277421168659473</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.987577178189295</v>
+        <v>-6.517863283972661</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.882255403927137</v>
+        <v>-7.757956521432114</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.195312834735029</v>
+        <v>8.972596404793304</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.019224924647721</v>
+        <v>3.753375404685138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.538763832995484</v>
+        <v>2.476496013647698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9683073759619027</v>
+        <v>0.452252458784668</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09094390019804215</v>
+        <v>0.1003348418418055</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.196951497112421</v>
+        <v>-3.376877719430529</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.949081876882476</v>
+        <v>3.796614505108272</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.917667892962191</v>
+        <v>0.6963617644286552</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.303631218726476</v>
+        <v>-1.656177054146267</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05509639322582111</v>
+        <v>-0.05875841097657403</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3414696422787448</v>
+        <v>-0.3183634081695257</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3253766726425455</v>
+        <v>-0.3328124040134113</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4487170029753128</v>
+        <v>-0.4495000173503736</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4744246378826443</v>
+        <v>-0.4701979562627666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5506493461261924</v>
+        <v>-0.5486243362835398</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1850142241592211</v>
+        <v>-0.1785215116323983</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3254534396152702</v>
+        <v>-0.34541946639685</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4158333983132014</v>
+        <v>-0.409940719526232</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7246083130835702</v>
+        <v>0.6871866291959805</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3245723754968624</v>
+        <v>0.3122251986510014</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.215657821807439</v>
+        <v>0.1993234209143671</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03741069388618228</v>
+        <v>0.03145393397776042</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.007955787083630688</v>
+        <v>0.009293298324609109</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.204663906243546</v>
+        <v>-0.2049761059109237</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2745858945087696</v>
+        <v>0.2542135792284522</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05922255769543951</v>
+        <v>0.04491058717249993</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.08761071877825989</v>
+        <v>-0.1137685969778136</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.5108462251116663</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.00608995201886</v>
+        <v>1.006089952018863</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.12338700954294</v>
+        <v>0.06823978039834573</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.000345721855925</v>
+        <v>-3.961527077955154</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6574407047474278</v>
+        <v>-0.8644385189176635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5471537483644043</v>
+        <v>-0.5113775745202631</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4586462022167663</v>
+        <v>-0.578819980678799</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6712462505593116</v>
+        <v>-0.6801435648461504</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2844468522767666</v>
+        <v>0.2747265424094746</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.702631218015708</v>
+        <v>-1.796297131532787</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1886587482750807</v>
+        <v>-0.1336086017036577</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.773364945387112</v>
+        <v>3.74446169431412</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3818131370516871</v>
+        <v>-0.3193595288277223</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.304065959280579</v>
+        <v>3.22215207130495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.640665082319458</v>
+        <v>2.813749331390945</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.64352636974914</v>
+        <v>2.605333061002525</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.46295761675996</v>
+        <v>2.447555210425961</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.700858360339234</v>
+        <v>2.754601984191358</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6503635424217573</v>
+        <v>0.6488881102625155</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.186029124316343</v>
+        <v>2.283514610584906</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.03629961393142302</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.07149054851209957</v>
+        <v>0.07149054851209977</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.003809482647426298</v>
+        <v>0.00367150063522999</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2372232581514598</v>
+        <v>-0.2372410330835278</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03838369266474412</v>
+        <v>-0.05333766794561955</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04260238253480735</v>
+        <v>-0.03710808054180265</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03632823202568242</v>
+        <v>-0.04294704603174691</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05435187430105902</v>
+        <v>-0.05145844623967631</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01883828546630093</v>
+        <v>0.01996570933118175</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1159814643341391</v>
+        <v>-0.1235646780141802</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01315777604316526</v>
+        <v>-0.009802364869844952</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2562469596661419</v>
+        <v>0.257164346418026</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02347588820202791</v>
+        <v>-0.01741265258477903</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2237818830643981</v>
+        <v>0.2157331426590778</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2237274524218855</v>
+        <v>0.2385768758794782</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2238215476012367</v>
+        <v>0.2213939352497094</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2152967052786848</v>
+        <v>0.2086439445001537</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1991127290695535</v>
+        <v>0.2020577267415718</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0478036887610901</v>
+        <v>0.04790640976314154</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1599285564668693</v>
+        <v>0.171687660840462</v>
       </c>
     </row>
     <row r="34">
